--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\ADSO-2901817\02-session\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB955A6-268A-4309-92BC-841BA6A47522}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANEXO" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ANEXO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -22,71 +27,67 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
   <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÉRMINO O FRASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE DE DATOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE DEL ARTÍCULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"arquitectura de microservicios"</t>
+    <t>#</t>
+  </si>
+  <si>
+    <t>TÉRMINO O FRASE</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL ARTÍCULO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>"arquitectura de microservicios"</t>
   </si>
   <si>
     <t xml:space="preserve">
 https://revistas.udistrital.edu.co/index.php/tia/article/view/9687/pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">google 
+    <t>google 
 Scholar</t>
   </si>
   <si>
-    <t xml:space="preserve">Arquitectura de microservicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"arquitectura orientada a servicios"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://www.scielo.cl/pdf/ingeniare/v19n1/art05.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitectura orientada a servicios para software de apoyo para el proceso personal de software</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"arquitectura serverless" "articulo"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://polodelconocimiento.com/ojs/index.php/es/article/view/8805/pdf</t>
+    <t>Arquitectura de microservicios</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>"arquitectura orientada a servicios"</t>
+  </si>
+  <si>
+    <t>"arquitectura serverless" "articulo"</t>
+  </si>
+  <si>
+    <t>https://polodelconocimiento.com/ojs/index.php/es/article/view/8805/pdf</t>
   </si>
   <si>
     <t xml:space="preserve">Análisis de seguridad en arquitecturas serverless en la nube  </t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=8590088</t>
+  </si>
+  <si>
+    <t>Arquitectura de software. Arquitectura orientada a servicios</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -95,22 +96,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -118,7 +104,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -126,7 +112,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -155,116 +141,79 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="14">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -323,34 +272,362 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I4" activeCellId="0" sqref="I4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -373,14 +650,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+    <row r="2" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="4">
         <v>2018</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -396,54 +673,54 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="n">
-        <v>2011</v>
-      </c>
-      <c r="D3" s="9" t="s">
+      <c r="C3" s="2">
+        <v>2012</v>
+      </c>
+      <c r="D3" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="2">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="C4" s="2">
+        <v>2025</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="30.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" s="3" t="s">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="n">
-        <v>2025</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>17</v>
-      </c>
       <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
       <c r="B5" s="3"/>
@@ -457,8 +734,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+    <row r="6" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
       <c r="B6" s="3"/>
@@ -472,8 +749,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+    <row r="7" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
       <c r="B7" s="3"/>
@@ -487,13 +764,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="4"/>
-      <c r="D8" s="12"/>
+      <c r="D8" s="11"/>
       <c r="E8" s="6" t="s">
         <v>9</v>
       </c>
@@ -502,13 +779,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="4"/>
-      <c r="D9" s="13"/>
+      <c r="D9" s="12"/>
       <c r="E9" s="6" t="s">
         <v>9</v>
       </c>
@@ -517,8 +794,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
         <v>9</v>
       </c>
       <c r="B10" s="3"/>
@@ -532,8 +809,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
       <c r="B11" s="3"/>
@@ -547,8 +824,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
         <v>11</v>
       </c>
       <c r="B12" s="3"/>
@@ -562,13 +839,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="4"/>
-      <c r="D13" s="12"/>
+      <c r="D13" s="11"/>
       <c r="E13" s="6" t="s">
         <v>9</v>
       </c>
@@ -577,8 +854,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
       <c r="B14" s="3"/>
@@ -592,8 +869,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
       <c r="B15" s="3"/>
@@ -607,8 +884,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
       <c r="B16" s="3"/>
@@ -622,13 +899,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
+      <c r="B17" s="10"/>
       <c r="C17" s="4"/>
-      <c r="D17" s="12"/>
+      <c r="D17" s="11"/>
       <c r="E17" s="6" t="s">
         <v>9</v>
       </c>
@@ -637,13 +914,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
+      <c r="B18" s="10"/>
       <c r="C18" s="4"/>
-      <c r="D18" s="13"/>
+      <c r="D18" s="12"/>
       <c r="E18" s="6" t="s">
         <v>9</v>
       </c>
@@ -652,13 +929,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
+      <c r="B19" s="10"/>
       <c r="C19" s="4"/>
-      <c r="D19" s="12"/>
+      <c r="D19" s="11"/>
       <c r="E19" s="6" t="s">
         <v>9</v>
       </c>
@@ -667,13 +944,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
+      <c r="B20" s="10"/>
       <c r="C20" s="4"/>
-      <c r="D20" s="12"/>
+      <c r="D20" s="11"/>
       <c r="E20" s="6" t="s">
         <v>9</v>
       </c>
@@ -682,13 +959,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
+      <c r="B21" s="10"/>
       <c r="C21" s="4"/>
-      <c r="D21" s="12"/>
+      <c r="D21" s="11"/>
       <c r="E21" s="6" t="s">
         <v>9</v>
       </c>
@@ -697,13 +974,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
+      <c r="B22" s="10"/>
       <c r="C22" s="4"/>
-      <c r="D22" s="13"/>
+      <c r="D22" s="12"/>
       <c r="E22" s="6" t="s">
         <v>9</v>
       </c>
@@ -712,13 +989,13 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
+      <c r="B23" s="10"/>
       <c r="C23" s="4"/>
-      <c r="D23" s="12"/>
+      <c r="D23" s="11"/>
       <c r="E23" s="6" t="s">
         <v>9</v>
       </c>
@@ -727,8 +1004,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
       <c r="B24" s="3"/>
@@ -742,8 +1019,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
       <c r="B25" s="3"/>
@@ -757,22 +1034,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="https://revistas.udistrital.edu.co/index.php/tia/article/view/9687/pdf"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://www.scielo.cl/pdf/ingeniare/v19n1/art05.pdf"/>
+    <hyperlink ref="D2" r:id="rId1" display="https://revistas.udistrital.edu.co/index.php/tia/article/view/9687/pdf" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -76,6 +76,31 @@
   </si>
   <si>
     <t xml:space="preserve">Implementación de una Arquitectura de Software guiada por el Dominio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Onion Architecture”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://repositorio.cecar.edu.co/server/api/core/bitstreams/d486082d-00df-4ad8-bf8b-a0659bc5f02d/content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PLATAFORMA WEB PARA EVALUAR HABILIDADES DE
+PENSAMIENTO CRÍTICO</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trabajo 
+De grado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">“Arquitectura limpia software”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">http://www.scielo.org.co/pdf/teclo/v24n52/2256-5337-teclo-24-52-226.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Repercusión de arquitectura limpia y la norma
+ISO/IEC 25010 en la mantenibilidad de
+aplicativos Android</t>
   </si>
 </sst>
 </file>
@@ -198,24 +223,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -223,23 +252,23 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,15 +276,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -340,429 +373,445 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B5" activeCellId="0" sqref="B5"/>
+      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="D4" s="11" t="s">
+      <c r="D4" s="12" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="12" t="s">
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="G4" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="11"/>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="B5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="G5" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10"/>
-      <c r="G6" s="8" t="s">
+      <c r="B6" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" s="3" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="11"/>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10"/>
-      <c r="G7" s="8" t="s">
+      <c r="B7" s="4"/>
+      <c r="C7" s="3"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="13"/>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="8" t="s">
+      <c r="B8" s="11"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8"/>
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="14"/>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="8" t="s">
+      <c r="B9" s="11"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="16"/>
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8"/>
+      <c r="G9" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10"/>
-      <c r="G10" s="8" t="s">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="3"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="10"/>
-      <c r="G11" s="8" t="s">
+      <c r="B11" s="4"/>
+      <c r="C11" s="3"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10"/>
-      <c r="G12" s="8" t="s">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4"/>
+      <c r="C12" s="3"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="11"/>
+      <c r="G12" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="10"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="13"/>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7"/>
-      <c r="G13" s="8" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8"/>
+      <c r="G13" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10"/>
-      <c r="G14" s="8" t="s">
+      <c r="B14" s="4"/>
+      <c r="C14" s="3"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="11"/>
+      <c r="G14" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="11"/>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8" t="s">
+      <c r="B15" s="4"/>
+      <c r="C15" s="3"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11"/>
+      <c r="G15" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="11"/>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8" t="s">
+      <c r="B16" s="4"/>
+      <c r="C16" s="3"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="11"/>
+      <c r="G16" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="13"/>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8" t="s">
+      <c r="B17" s="11"/>
+      <c r="C17" s="5"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="8"/>
+      <c r="G17" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8" t="s">
+      <c r="B18" s="11"/>
+      <c r="C18" s="5"/>
+      <c r="D18" s="16"/>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="8"/>
+      <c r="G18" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="13"/>
-      <c r="E19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8" t="s">
+      <c r="B19" s="11"/>
+      <c r="C19" s="5"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="8"/>
+      <c r="G19" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="13"/>
-      <c r="E20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8" t="s">
+      <c r="B20" s="11"/>
+      <c r="C20" s="5"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8"/>
+      <c r="G20" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="13"/>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8" t="s">
+      <c r="B21" s="11"/>
+      <c r="C21" s="5"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="8"/>
+      <c r="G21" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="A22" s="3" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8" t="s">
+      <c r="B22" s="11"/>
+      <c r="C22" s="5"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8"/>
+      <c r="G22" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+      <c r="A23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="13"/>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8" t="s">
+      <c r="B23" s="11"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="15"/>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8"/>
+      <c r="G23" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="11"/>
-      <c r="E24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8" t="s">
+      <c r="B24" s="4"/>
+      <c r="C24" s="3"/>
+      <c r="D24" s="12"/>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="11"/>
+      <c r="G24" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="11"/>
-      <c r="E25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8" t="s">
+      <c r="B25" s="4"/>
+      <c r="C25" s="3"/>
+      <c r="D25" s="12"/>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="11"/>
+      <c r="G25" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="A26" s="3" t="n">
         <v>25</v>
       </c>
     </row>
@@ -771,6 +820,8 @@
     <hyperlink ref="D2" r:id="rId1" display="&#10;https://revistas.udistrital.edu.co/index.php/tia/article/view/9687/pdf"/>
     <hyperlink ref="D3" r:id="rId2" display="https://dialnet.unirioja.es/servlet/articulo?codigo=8590088"/>
     <hyperlink ref="D4" r:id="rId3" display="https://sedici.unlp.edu.ar/bitstream/handle/10915/115198/Documento_completo.pdf-PDFA.pdf?sequence=1&amp;isAllowed=y"/>
+    <hyperlink ref="D5" r:id="rId4" display="https://repositorio.cecar.edu.co/server/api/core/bitstreams/d486082d-00df-4ad8-bf8b-a0659bc5f02d/content"/>
+    <hyperlink ref="D6" r:id="rId5" display="http://www.scielo.org.co/pdf/teclo/v24n52/2256-5337-teclo-24-52-226.pdf"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -1,16 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <workbookPr defaultThemeVersion="202300"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\ADSO-2901817\02-session\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5F36EE-8ED9-4C54-9160-4B390F02575B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="ANEXO" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="ANEXO" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
+  <calcPr calcId="0" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
@@ -20,98 +25,104 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="25">
-  <si>
-    <t xml:space="preserve">#</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TÉRMINO O FRASE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">FECHA</t>
-  </si>
-  <si>
-    <t xml:space="preserve">URL</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BASE DE DATOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">NOMBRE DEL ARTÍCULO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">TIPO</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"arquitectura de microservicios"</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t>TÉRMINO O FRASE</t>
+  </si>
+  <si>
+    <t>FECHA</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>BASE DE DATOS</t>
+  </si>
+  <si>
+    <t>NOMBRE DEL ARTÍCULO</t>
+  </si>
+  <si>
+    <t>TIPO</t>
+  </si>
+  <si>
+    <t>"arquitectura de microservicios"</t>
   </si>
   <si>
     <t xml:space="preserve">
 https://revistas.udistrital.edu.co/index.php/tia/article/view/9687/pdf</t>
   </si>
   <si>
-    <t xml:space="preserve">google 
+    <t>google 
 Scholar</t>
   </si>
   <si>
-    <t xml:space="preserve">Arquitectura de microservicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Articulo</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"arquitectura orientada a servicios"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://dialnet.unirioja.es/servlet/articulo?codigo=8590088</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Arquitectura de software. Arquitectura orientada a servicios</t>
-  </si>
-  <si>
-    <t xml:space="preserve">"Arquitectura Hexagonal"</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://sedici.unlp.edu.ar/bitstream/handle/10915/115198/Documento_completo.pdf-PDFA.pdf?sequence=1&amp;isAllowed=y</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Implementación de una Arquitectura de Software guiada por el Dominio</t>
-  </si>
-  <si>
-    <t xml:space="preserve">“Onion Architecture”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">https://repositorio.cecar.edu.co/server/api/core/bitstreams/d486082d-00df-4ad8-bf8b-a0659bc5f02d/content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">PLATAFORMA WEB PARA EVALUAR HABILIDADES DE
+    <t>Arquitectura de microservicios</t>
+  </si>
+  <si>
+    <t>Articulo</t>
+  </si>
+  <si>
+    <t>"arquitectura orientada a servicios"</t>
+  </si>
+  <si>
+    <t>https://dialnet.unirioja.es/servlet/articulo?codigo=8590088</t>
+  </si>
+  <si>
+    <t>Arquitectura de software. Arquitectura orientada a servicios</t>
+  </si>
+  <si>
+    <t>"Arquitectura Hexagonal"</t>
+  </si>
+  <si>
+    <t>https://sedici.unlp.edu.ar/bitstream/handle/10915/115198/Documento_completo.pdf-PDFA.pdf?sequence=1&amp;isAllowed=y</t>
+  </si>
+  <si>
+    <t>Implementación de una Arquitectura de Software guiada por el Dominio</t>
+  </si>
+  <si>
+    <t>“Onion Architecture”</t>
+  </si>
+  <si>
+    <t>https://repositorio.cecar.edu.co/server/api/core/bitstreams/d486082d-00df-4ad8-bf8b-a0659bc5f02d/content</t>
+  </si>
+  <si>
+    <t>PLATAFORMA WEB PARA EVALUAR HABILIDADES DE
 PENSAMIENTO CRÍTICO</t>
   </si>
   <si>
-    <t xml:space="preserve">Trabajo 
+    <t>Trabajo 
 De grado</t>
   </si>
   <si>
-    <t xml:space="preserve">“Arquitectura limpia software”</t>
-  </si>
-  <si>
-    <t xml:space="preserve">http://www.scielo.org.co/pdf/teclo/v24n52/2256-5337-teclo-24-52-226.pdf</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Repercusión de arquitectura limpia y la norma
+    <t>“Arquitectura limpia software”</t>
+  </si>
+  <si>
+    <t>http://www.scielo.org.co/pdf/teclo/v24n52/2256-5337-teclo-24-52-226.pdf</t>
+  </si>
+  <si>
+    <t>Repercusión de arquitectura limpia y la norma
 ISO/IEC 25010 en la mantenibilidad de
 aplicativos Android</t>
+  </si>
+  <si>
+    <t>"CQRS Architecture"</t>
+  </si>
+  <si>
+    <t>http://epa.niif.hu/02400/02461/00131/pdf/EPA02461_acta_polytechnica_2023_04_141-160.pdf</t>
+  </si>
+  <si>
+    <t>A Simplified Approach to Distributed Message
+Handling in a CQRS Architecture</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="General"/>
-    <numFmt numFmtId="165" formatCode="@"/>
-  </numFmts>
-  <fonts count="7">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -120,22 +131,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -143,7 +139,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="10"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -151,7 +147,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <u val="single"/>
+      <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
@@ -180,128 +176,87 @@
     </fill>
   </fills>
   <borders count="2">
-    <border diagonalUp="false" diagonalDown="false">
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
       <diagonal/>
     </border>
-    <border diagonalUp="false" diagonalDown="false">
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="21">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-    </xf>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="165" fontId="5" fillId="3" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
+  <cellXfs count="18">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
-  <cellStyles count="7">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
-    <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="FF000000"/>
@@ -360,34 +315,362 @@
       <rgbColor rgb="FF993366"/>
       <rgbColor rgb="FF333399"/>
       <rgbColor rgb="FF333333"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
     </indexedColors>
   </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="0E2841"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E8E8E8"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="156082"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="E97132"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="196B24"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="0F9ED5"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="A02B93"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="4EA72E"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="467886"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="96607D"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J6" activeCellId="0" sqref="J6"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.14"/>
+    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11" style="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -410,14 +693,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    <row r="2" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
         <v>1</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5" t="n">
+      <c r="C2" s="5">
         <v>2018</v>
       </c>
       <c r="D2" s="6" t="s">
@@ -433,14 +716,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
         <v>2</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="n">
+      <c r="C3" s="3">
         <v>2012</v>
       </c>
       <c r="D3" s="10" t="s">
@@ -456,17 +739,17 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="3">
         <v>3</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3" t="n">
+      <c r="C4" s="3">
         <v>2020</v>
       </c>
-      <c r="D4" s="12" t="s">
+      <c r="D4" s="17" t="s">
         <v>16</v>
       </c>
       <c r="E4" s="7" t="s">
@@ -479,14 +762,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.25">
+      <c r="A5" s="3">
         <v>4</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3" t="n">
+      <c r="C5" s="3">
         <v>2025</v>
       </c>
       <c r="D5" s="12" t="s">
@@ -502,17 +785,17 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
+      <c r="A6" s="3">
         <v>5</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3" t="n">
+      <c r="C6" s="3">
         <v>2021</v>
       </c>
-      <c r="D6" s="12" t="s">
+      <c r="D6" s="17" t="s">
         <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
@@ -525,23 +808,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
+      <c r="A7" s="3">
         <v>6</v>
       </c>
-      <c r="B7" s="4"/>
-      <c r="C7" s="3"/>
-      <c r="D7" s="12"/>
+      <c r="B7" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="3">
+        <v>2023</v>
+      </c>
+      <c r="D7" s="17" t="s">
+        <v>26</v>
+      </c>
       <c r="E7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="F7" s="11"/>
+      <c r="F7" s="11" t="s">
+        <v>27</v>
+      </c>
       <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="3" t="n">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="3">
         <v>7</v>
       </c>
       <c r="B8" s="11"/>
@@ -555,8 +846,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="3" t="n">
+    <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A9" s="3">
         <v>8</v>
       </c>
       <c r="B9" s="11"/>
@@ -570,8 +861,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="3" t="n">
+    <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A10" s="3">
         <v>9</v>
       </c>
       <c r="B10" s="4"/>
@@ -585,8 +876,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="11" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="3" t="n">
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="4"/>
@@ -600,8 +891,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="12" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="3" t="n">
+    <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="4"/>
@@ -615,8 +906,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="3" t="n">
+    <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A13" s="3">
         <v>12</v>
       </c>
       <c r="B13" s="11"/>
@@ -630,8 +921,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="3" t="n">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="4"/>
@@ -645,8 +936,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="3" t="n">
+    <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="3">
         <v>14</v>
       </c>
       <c r="B15" s="4"/>
@@ -660,8 +951,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="3" t="n">
+    <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A16" s="3">
         <v>15</v>
       </c>
       <c r="B16" s="4"/>
@@ -675,8 +966,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="3" t="n">
+    <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="3">
         <v>16</v>
       </c>
       <c r="B17" s="11"/>
@@ -690,8 +981,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="3" t="n">
+    <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="3">
         <v>17</v>
       </c>
       <c r="B18" s="11"/>
@@ -705,8 +996,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="3" t="n">
+    <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="11"/>
@@ -720,8 +1011,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="3" t="n">
+    <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A20" s="3">
         <v>19</v>
       </c>
       <c r="B20" s="11"/>
@@ -735,8 +1026,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="3" t="n">
+    <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="3">
         <v>20</v>
       </c>
       <c r="B21" s="11"/>
@@ -750,8 +1041,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="3" t="n">
+    <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A22" s="3">
         <v>21</v>
       </c>
       <c r="B22" s="11"/>
@@ -765,8 +1056,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="3" t="n">
+    <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="3">
         <v>22</v>
       </c>
       <c r="B23" s="11"/>
@@ -780,8 +1071,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="3" t="n">
+    <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A24" s="3">
         <v>23</v>
       </c>
       <c r="B24" s="4"/>
@@ -795,8 +1086,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="3" t="n">
+    <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="4"/>
@@ -810,25 +1101,31 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="3" t="n">
+    <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A26" s="3">
         <v>25</v>
+      </c>
+      <c r="B26" s="4"/>
+      <c r="C26" s="3"/>
+      <c r="D26" s="12"/>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="&#10;https://revistas.udistrital.edu.co/index.php/tia/article/view/9687/pdf"/>
-    <hyperlink ref="D3" r:id="rId2" display="https://dialnet.unirioja.es/servlet/articulo?codigo=8590088"/>
-    <hyperlink ref="D4" r:id="rId3" display="https://sedici.unlp.edu.ar/bitstream/handle/10915/115198/Documento_completo.pdf-PDFA.pdf?sequence=1&amp;isAllowed=y"/>
-    <hyperlink ref="D5" r:id="rId4" display="https://repositorio.cecar.edu.co/server/api/core/bitstreams/d486082d-00df-4ad8-bf8b-a0659bc5f02d/content"/>
-    <hyperlink ref="D6" r:id="rId5" display="http://www.scielo.org.co/pdf/teclo/v24n52/2256-5337-teclo-24-52-226.pdf"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{3DBAD3D8-EA7F-43C7-8C4F-64B6246C02BD}"/>
   </hyperlinks>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader/>
-    <oddFooter/>
-  </headerFooter>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>
--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Aprendiz\Documents\ADSO-2901817\02-session\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C5F36EE-8ED9-4C54-9160-4B390F02575B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84ED9DC4-FED7-423C-A8AB-1F26F7D6ABF1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ANEXO" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="31">
   <si>
     <t>#</t>
   </si>
@@ -116,6 +116,15 @@
   <si>
     <t>A Simplified Approach to Distributed Message
 Handling in a CQRS Architecture</t>
+  </si>
+  <si>
+    <t>https://openaccess.uoc.edu/server/api/core/bitstreams/bc7bd78d-715f-47f1-a85a-3b95fa6c98ed/content</t>
+  </si>
+  <si>
+    <t>Aplicación de los patrones CQRS y Event/Sourcing en el desarrollo de un portal inmobiliario</t>
+  </si>
+  <si>
+    <t>arquitectura event sourcing</t>
   </si>
 </sst>
 </file>
@@ -203,53 +212,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -655,464 +662,472 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25:F26"/>
+    <sheetView tabSelected="1" topLeftCell="B6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="7.28515625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="26.5703125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11" style="1" customWidth="1"/>
-    <col min="6" max="6" width="30.28515625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="9.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="7.28515625" customWidth="1"/>
+    <col min="4" max="4" width="26.5703125" customWidth="1"/>
+    <col min="5" max="5" width="11" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" customWidth="1"/>
+    <col min="7" max="7" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="51.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
+      <c r="A2" s="2">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>2018</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="8" t="s">
+      <c r="E2" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="7" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A3" s="3">
+      <c r="A3" s="2">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3">
+      <c r="C3" s="2">
         <v>2012</v>
       </c>
-      <c r="D3" s="10" t="s">
+      <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="11" t="s">
+      <c r="E3" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A4" s="3">
+      <c r="A4" s="2">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="3">
+      <c r="C4" s="2">
         <v>2020</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="13" t="s">
+      <c r="E4" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A5" s="3">
+      <c r="A5" s="2">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="3">
+      <c r="C5" s="2">
         <v>2025</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="11" t="s">
+      <c r="E5" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="14" t="s">
+      <c r="G5" s="13" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="75" x14ac:dyDescent="0.25">
-      <c r="A6" s="3">
+      <c r="A6" s="2">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="2">
         <v>2021</v>
       </c>
-      <c r="D6" s="17" t="s">
+      <c r="D6" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="11" t="s">
+      <c r="E6" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="45" x14ac:dyDescent="0.25">
-      <c r="A7" s="3">
+      <c r="A7" s="2">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="2">
         <v>2023</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="11" t="s">
+      <c r="E7" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A8" s="3">
+      <c r="G7" s="8" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="60" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>7</v>
       </c>
-      <c r="B8" s="11"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="9" t="s">
+      <c r="B8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="4">
+        <v>2021</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G8" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A9" s="3">
+      <c r="A9" s="2">
         <v>8</v>
       </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="8"/>
-      <c r="G9" s="9" t="s">
+      <c r="B9" s="10"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="7"/>
+      <c r="G9" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A10" s="3">
-        <v>9</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="9" t="s">
+      <c r="A10" s="2">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="11"/>
+      <c r="E10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="10"/>
+      <c r="G10" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A11" s="3">
+      <c r="A11" s="2">
         <v>10</v>
       </c>
-      <c r="B11" s="4"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="9" t="s">
+      <c r="B11" s="3"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="10"/>
+      <c r="G11" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A12" s="3">
-        <v>11</v>
-      </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="11"/>
-      <c r="G12" s="9" t="s">
+      <c r="A12" s="2">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="10"/>
+      <c r="G12" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A13" s="3">
+      <c r="A13" s="2">
         <v>12</v>
       </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="8"/>
-      <c r="G13" s="9" t="s">
+      <c r="B13" s="10"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="7"/>
+      <c r="G13" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A14" s="3">
+      <c r="A14" s="2">
         <v>13</v>
       </c>
-      <c r="B14" s="4"/>
-      <c r="C14" s="3"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="11"/>
-      <c r="G14" s="9" t="s">
+      <c r="B14" s="3"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="10"/>
+      <c r="G14" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="15" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="3">
+      <c r="A15" s="2">
         <v>14</v>
       </c>
-      <c r="B15" s="4"/>
-      <c r="C15" s="3"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="11"/>
-      <c r="G15" s="9" t="s">
+      <c r="B15" s="3"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="10"/>
+      <c r="G15" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A16" s="3">
+      <c r="A16" s="2">
         <v>15</v>
       </c>
-      <c r="B16" s="4"/>
-      <c r="C16" s="3"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="11"/>
-      <c r="G16" s="9" t="s">
+      <c r="B16" s="3"/>
+      <c r="C16" s="2"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="10"/>
+      <c r="G16" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A17" s="3">
+      <c r="A17" s="2">
         <v>16</v>
       </c>
-      <c r="B17" s="11"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="9" t="s">
+      <c r="B17" s="10"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="7"/>
+      <c r="G17" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="3">
+      <c r="A18" s="2">
         <v>17</v>
       </c>
-      <c r="B18" s="11"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="16"/>
-      <c r="E18" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="8"/>
-      <c r="G18" s="9" t="s">
+      <c r="B18" s="10"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="7"/>
+      <c r="G18" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A19" s="3">
+      <c r="A19" s="2">
         <v>18</v>
       </c>
-      <c r="B19" s="11"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="8"/>
-      <c r="G19" s="9" t="s">
+      <c r="B19" s="10"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="7"/>
+      <c r="G19" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A20" s="3">
+      <c r="A20" s="2">
         <v>19</v>
       </c>
-      <c r="B20" s="11"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="8"/>
-      <c r="G20" s="9" t="s">
+      <c r="B20" s="10"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="14"/>
+      <c r="E20" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A21" s="3">
+      <c r="A21" s="2">
         <v>20</v>
       </c>
-      <c r="B21" s="11"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="8"/>
-      <c r="G21" s="9" t="s">
+      <c r="B21" s="10"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="7"/>
+      <c r="G21" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="22" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A22" s="3">
+      <c r="A22" s="2">
         <v>21</v>
       </c>
-      <c r="B22" s="11"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="8"/>
-      <c r="G22" s="9" t="s">
+      <c r="B22" s="10"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="15"/>
+      <c r="E22" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="7"/>
+      <c r="G22" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="23" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="3">
+      <c r="A23" s="2">
         <v>22</v>
       </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="9" t="s">
+      <c r="B23" s="10"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="14"/>
+      <c r="E23" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="7"/>
+      <c r="G23" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A24" s="3">
+      <c r="A24" s="2">
         <v>23</v>
       </c>
-      <c r="B24" s="4"/>
-      <c r="C24" s="3"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="11"/>
-      <c r="G24" s="9" t="s">
+      <c r="B24" s="3"/>
+      <c r="C24" s="2"/>
+      <c r="D24" s="11"/>
+      <c r="E24" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="10"/>
+      <c r="G24" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="25" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A25" s="3">
+      <c r="A25" s="2">
         <v>24</v>
       </c>
-      <c r="B25" s="4"/>
-      <c r="C25" s="3"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="11"/>
-      <c r="G25" s="9" t="s">
+      <c r="B25" s="3"/>
+      <c r="C25" s="2"/>
+      <c r="D25" s="11"/>
+      <c r="E25" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="10"/>
+      <c r="G25" s="8" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="30" x14ac:dyDescent="0.25">
-      <c r="A26" s="3">
+      <c r="A26" s="2">
         <v>25</v>
       </c>
-      <c r="B26" s="4"/>
-      <c r="C26" s="3"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="7" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="11"/>
-      <c r="G26" s="9" t="s">
+      <c r="B26" s="3"/>
+      <c r="C26" s="2"/>
+      <c r="D26" s="11"/>
+      <c r="E26" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="10"/>
+      <c r="G26" s="8" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1124,6 +1139,7 @@
     <hyperlink ref="D5" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
     <hyperlink ref="D6" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="D7" r:id="rId6" xr:uid="{3DBAD3D8-EA7F-43C7-8C4F-64B6246C02BD}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{59274F8C-7B20-4176-99F1-1F2128278E2B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/02-session/Thesaurus.xlsx
+++ b/02-session/Thesaurus.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="84">
   <si>
     <t xml:space="preserve">#</t>
   </si>
@@ -179,6 +179,121 @@
   </si>
   <si>
     <t xml:space="preserve">Arquitectura Big Data para el procesamiento de señales en industria 4.0</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arquitectura data mesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openaccess.uoc.edu/server/api/core/bitstreams/a638a7f6-5334-4023-904b-e5685b9918c3/content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">DESCENTRALIZACIÓN DE LA GESTIÓN DE LA CADENA DE
+SUMINISTRO MEDIANTE DATA MESH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura basada en Blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://dspace.ups.edu.ec/bitstream/123456789/29313/1/UPS-GT005937.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura de información para asegurar la trazabilidad en la distribución de
+medicina en el Ministerio de Salud Pública basado en Blockchain</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura de Aprendizaje Federado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://redi.anii.org.uy/jspui/bitstream/20.500.12381/3126/1/principal.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> FLEA: Aprendizaje Federado aplicado a Analíticas de Aprendizaje</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reporte
+Tecnico</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura Serverless</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://docta.ucm.es/rest/api/core/bitstreams/f9c2f7d3-7f87-45d8-9e4f-5609bf61cc79/content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Serverless architecture for data processing
+and detecting anomalies in MARSIS
+Instrument</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura Nativa en la Nube "articulo"</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://cloud.google.com/blog/products/application-development/5-principles-for-cloud-native-architecture-what-it-is-and-how-to-master-it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">google 
+Cloud</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5 principles for cloud-native architecture—what it is and how to master it</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura Edge Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://revistas.up.ac.pa/index.php/antataura/article/view/2199/2038</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edge Computing: Aplicaciones ydesafíos actuales</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arquitectura Fog Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://oa.upm.es/52621/2/TFG_DAVID_LARA_ARAGONES.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Agentes inteligentes para Fog Computing.
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arquitectura Grid Computing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://oa.upm.es/7766/1/INVE_MEM_2010_78947.pdf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura GRID Computing como medio para la
+democratización e integración de datos LiDAR</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura Peer-to-Peer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ruc.udc.es/rest/api/core/bitstreams/5cb063c3-df14-4b5e-a9e3-6fc190b0d1af/content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Desarrollo de una librería para el
+aprendizaje federado bajo una arquitectura
+Peer-to-peer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">arquitectura Service Mesh</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://openaccess.uoc.edu/server/api/core/bitstreams/f989c512-439f-4502-b421-87da4d74fa05/content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implementaciòn de protocolos seguros en arquitecturas Service Mesh con Istio</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arquitectura basada en Contenedores</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://epistemeypraxis.org/index.php/revista/article/view/73/69</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ARQUITECTURA DE MICROSERVISIOS BASDA EN CONTENEDORES PARA DESPLIEGUE AGIL DE APLICACIONES IOT EN LA NUBE</t>
   </si>
 </sst>
 </file>
@@ -301,24 +416,28 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,27 +445,27 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="true">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -354,16 +473,20 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -444,522 +567,985 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G51"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G13" activeCellId="0" sqref="G13:G14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H25" activeCellId="0" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.71484375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="4.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="19.14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="7.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="26.57"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="30.29"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="4.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="19.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="7.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="26.57"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="30.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="51.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="4" t="n">
+      <c r="C2" s="5" t="n">
         <v>2018</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" s="7" t="s">
+      <c r="E2" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="G2" s="8" t="s">
+      <c r="G2" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="2" t="n">
+      <c r="C3" s="3" t="n">
         <v>2012</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F3" s="10" t="s">
+      <c r="E3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="8" t="s">
+      <c r="G3" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="2" t="n">
+      <c r="A4" s="3" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="2" t="n">
+      <c r="C4" s="3" t="n">
         <v>2020</v>
       </c>
-      <c r="D4" s="9" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F4" s="11" t="s">
+      <c r="E4" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F4" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="51" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="2" t="n">
+      <c r="A5" s="3" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="2" t="n">
+      <c r="C5" s="3" t="n">
         <v>2025</v>
       </c>
-      <c r="D5" s="12" t="s">
+      <c r="D5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E5" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="10" t="s">
+      <c r="E5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="G5" s="13" t="s">
+      <c r="G5" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="2" t="n">
+      <c r="A6" s="3" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="C6" s="2" t="n">
+      <c r="C6" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="E6" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F6" s="10" t="s">
+      <c r="E6" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F6" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="8" t="s">
+      <c r="G6" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="2" t="n">
+      <c r="A7" s="3" t="n">
         <v>6</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="C7" s="2" t="n">
+      <c r="C7" s="3" t="n">
         <v>2023</v>
       </c>
-      <c r="D7" s="9" t="s">
+      <c r="D7" s="10" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="10" t="s">
+      <c r="E7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="G7" s="8" t="s">
+      <c r="G7" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="60" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="2" t="n">
+      <c r="A8" s="3" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B8" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="C8" s="4" t="n">
+      <c r="C8" s="5" t="n">
         <v>2021</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D8" s="10" t="s">
         <v>29</v>
       </c>
-      <c r="E8" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F8" s="7" t="s">
+      <c r="E8" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F8" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="G8" s="8" t="s">
+      <c r="G8" s="9" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="2" t="n">
+      <c r="A9" s="3" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="10" t="s">
+      <c r="B9" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C9" s="4" t="n">
+      <c r="C9" s="5" t="n">
         <v>2019</v>
       </c>
-      <c r="D9" s="14" t="s">
+      <c r="D9" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="E9" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="7" t="s">
+      <c r="E9" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F9" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="G9" s="13" t="s">
+      <c r="G9" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B10" s="3" t="s">
+      <c r="A10" s="3" t="n">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="2" t="n">
+      <c r="C10" s="3" t="n">
         <v>2004</v>
       </c>
-      <c r="D10" s="12" t="s">
+      <c r="D10" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F10" s="10" t="s">
+      <c r="E10" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F10" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="13" t="s">
+      <c r="G10" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="49.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="2" t="n">
+      <c r="A11" s="3" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="C11" s="2" t="n">
+      <c r="C11" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="D11" s="12" t="s">
+      <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F11" s="10" t="s">
+      <c r="E11" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F11" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="G11" s="13" t="s">
+      <c r="G11" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B12" s="3" t="s">
+      <c r="A12" s="3" t="n">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>40</v>
       </c>
-      <c r="C12" s="2" t="n">
+      <c r="C12" s="3" t="n">
         <v>2021</v>
       </c>
-      <c r="D12" s="12" t="s">
+      <c r="D12" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F12" s="10" t="s">
+      <c r="E12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F12" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="G12" s="13" t="s">
+      <c r="G12" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="2" t="n">
+      <c r="A13" s="3" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="10" t="s">
+      <c r="B13" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C13" s="4" t="n">
+      <c r="C13" s="5" t="n">
         <v>2015</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="E13" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F13" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="G13" s="13" t="s">
+      <c r="G13" s="14" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="2" t="n">
+      <c r="A14" s="3" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>46</v>
       </c>
-      <c r="C14" s="2" t="n">
+      <c r="C14" s="3" t="n">
         <v>2019</v>
       </c>
-      <c r="D14" s="12" t="s">
+      <c r="D14" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F14" s="10" t="s">
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="G14" s="13" t="s">
+      <c r="G14" s="14" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="2" t="n">
+    <row r="15" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="3"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F15" s="10"/>
-      <c r="G15" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="2" t="n">
+      <c r="B15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" s="3" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D15" s="13" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="3"/>
-      <c r="C16" s="2"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F16" s="10"/>
-      <c r="G16" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="2" t="n">
+      <c r="B16" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" s="3" t="n">
+        <v>2024</v>
+      </c>
+      <c r="D16" s="13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="G16" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="10"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="7"/>
-      <c r="G17" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="2" t="n">
+      <c r="B17" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>56</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="G17" s="14" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="10"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F18" s="7"/>
-      <c r="G18" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="2" t="n">
+      <c r="B18" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="C18" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F18" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="10"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F19" s="7"/>
-      <c r="G19" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="2" t="n">
+      <c r="B19" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>2019</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="F19" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="10"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="2" t="n">
+      <c r="B20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="5" t="n">
+        <v>2021</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F20" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="10"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="7"/>
-      <c r="G21" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="2" t="n">
+      <c r="B21" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C21" s="5" t="n">
+        <v>2017</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="E21" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>71</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="10"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="14"/>
-      <c r="E22" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F22" s="7"/>
-      <c r="G22" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="2" t="n">
+    </row>
+    <row r="22" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="5" t="n">
+        <v>2010</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="E22" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F22" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="46.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="15"/>
-      <c r="E23" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="7"/>
-      <c r="G23" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="2" t="n">
+      <c r="B23" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="G23" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="35.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="3"/>
-      <c r="C24" s="2"/>
-      <c r="D24" s="12"/>
-      <c r="E24" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F24" s="10"/>
-      <c r="G24" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="2" t="n">
+      <c r="B24" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="C24" s="5" t="n">
+        <v>2022</v>
+      </c>
+      <c r="D24" s="13" t="s">
+        <v>79</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="17" t="s">
+        <v>80</v>
+      </c>
+      <c r="G24" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="57.45" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="n">
         <v>24</v>
       </c>
-      <c r="B25" s="3"/>
-      <c r="C25" s="2"/>
-      <c r="D25" s="12"/>
-      <c r="E25" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F25" s="10"/>
-      <c r="G25" s="8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="30" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="2" t="n">
+      <c r="B25" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25" s="5" t="n">
+        <v>2025</v>
+      </c>
+      <c r="D25" s="13" t="s">
+        <v>82</v>
+      </c>
+      <c r="E25" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="11" t="s">
+        <v>83</v>
+      </c>
+      <c r="G25" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="n">
         <v>25</v>
       </c>
-      <c r="B26" s="3"/>
-      <c r="C26" s="2"/>
-      <c r="D26" s="12"/>
-      <c r="E26" s="6" t="s">
-        <v>9</v>
-      </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="8" t="s">
+      <c r="B26" s="4"/>
+      <c r="C26" s="5"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="11"/>
+      <c r="G26" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F27" s="11"/>
+      <c r="G27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="11"/>
+      <c r="G28" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F29" s="11"/>
+      <c r="G29" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="4"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="11"/>
+      <c r="G30" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="4"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F31" s="11"/>
+      <c r="G31" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="3" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="4"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F32" s="11"/>
+      <c r="G32" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A33" s="3" t="n">
+        <v>32</v>
+      </c>
+      <c r="B33" s="4"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F33" s="11"/>
+      <c r="G33" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="34" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A34" s="3" t="n">
+        <v>33</v>
+      </c>
+      <c r="B34" s="4"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F34" s="11"/>
+      <c r="G34" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="3" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" s="4"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F35" s="11"/>
+      <c r="G35" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="3" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" s="4"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F36" s="11"/>
+      <c r="G36" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="3" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" s="4"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F37" s="11"/>
+      <c r="G37" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A38" s="3" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" s="4"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F38" s="11"/>
+      <c r="G38" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A39" s="3" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" s="4"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F39" s="11"/>
+      <c r="G39" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A40" s="3" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" s="4"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F40" s="11"/>
+      <c r="G40" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A41" s="3" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" s="4"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F41" s="11"/>
+      <c r="G41" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A42" s="3" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" s="4"/>
+      <c r="C42" s="5"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F42" s="11"/>
+      <c r="G42" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A43" s="3" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" s="4"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F43" s="11"/>
+      <c r="G43" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A44" s="3" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" s="4"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F44" s="11"/>
+      <c r="G44" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A45" s="3" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" s="4"/>
+      <c r="C45" s="5"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F45" s="11"/>
+      <c r="G45" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A46" s="3" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" s="4"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F46" s="11"/>
+      <c r="G46" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A47" s="3" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" s="4"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="11"/>
+      <c r="G47" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A48" s="3" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" s="4"/>
+      <c r="C48" s="5"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F48" s="11"/>
+      <c r="G48" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A49" s="3" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" s="4"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F49" s="11"/>
+      <c r="G49" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A50" s="3" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" s="4"/>
+      <c r="C50" s="5"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F50" s="11"/>
+      <c r="G50" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="23.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A51" s="3" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" s="4"/>
+      <c r="C51" s="5"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F51" s="11"/>
+      <c r="G51" s="9" t="s">
         <v>11</v>
       </c>
     </row>
@@ -976,6 +1562,16 @@
     <hyperlink ref="D12" r:id="rId9" display="https://repositorio.ual.es/bitstream/handle/10835/13738/SOLER%20CASTA%c3%91O%2c%20JUAN%20FRANCISCO.pdf?sequence=1&amp;isAllowed=y"/>
     <hyperlink ref="D13" r:id="rId10" display="https://oai.e-spacio.uned.es/server/api/core/bitstreams/5801dd3c-1164-4682-ab6c-b1d90c84ca44/content"/>
     <hyperlink ref="D14" r:id="rId11" display="https://oa.upm.es/62823/1/TFG_ALEJANDRO_CANTERO_CASARES.pdf"/>
+    <hyperlink ref="D15" r:id="rId12" display="https://openaccess.uoc.edu/server/api/core/bitstreams/a638a7f6-5334-4023-904b-e5685b9918c3/content"/>
+    <hyperlink ref="D17" r:id="rId13" display="https://redi.anii.org.uy/jspui/bitstream/20.500.12381/3126/1/principal.pdf"/>
+    <hyperlink ref="D18" r:id="rId14" display="https://docta.ucm.es/rest/api/core/bitstreams/f9c2f7d3-7f87-45d8-9e4f-5609bf61cc79/content"/>
+    <hyperlink ref="D19" r:id="rId15" display="https://cloud.google.com/blog/products/application-development/5-principles-for-cloud-native-architecture-what-it-is-and-how-to-master-it"/>
+    <hyperlink ref="D20" r:id="rId16" display="https://revistas.up.ac.pa/index.php/antataura/article/view/2199/2038"/>
+    <hyperlink ref="D21" r:id="rId17" display="https://oa.upm.es/52621/2/TFG_DAVID_LARA_ARAGONES.pdf"/>
+    <hyperlink ref="D22" r:id="rId18" display="https://oa.upm.es/7766/1/INVE_MEM_2010_78947.pdf"/>
+    <hyperlink ref="D23" r:id="rId19" display="https://ruc.udc.es/rest/api/core/bitstreams/5cb063c3-df14-4b5e-a9e3-6fc190b0d1af/content"/>
+    <hyperlink ref="D24" r:id="rId20" display="https://openaccess.uoc.edu/server/api/core/bitstreams/f989c512-439f-4502-b421-87da4d74fa05/content"/>
+    <hyperlink ref="D25" r:id="rId21" display="https://epistemeypraxis.org/index.php/revista/article/view/73/69"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
